--- a/samples/src/test/resources/samples/PivotReport.xlsx
+++ b/samples/src/test/resources/samples/PivotReport.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Author" refreshedDate="41547.563782291669" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Author" refreshedDate="41548.64161979167" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -184,7 +184,7 @@
   <dataFields count="1">
     <dataField name="Sum of Premium" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleDark3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
@@ -197,7 +197,7 @@
     <tableColumn id="3" name="Policy Number"/>
     <tableColumn id="4" name="Premium" totalsRowFunction="sum" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -489,7 +489,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,7 +533,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/samples/src/test/resources/samples/PivotReport.xlsx
+++ b/samples/src/test/resources/samples/PivotReport.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Author" refreshedDate="41548.64161979167" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41549.556891782406" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -146,8 +146,19 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="policy"/>
+    <s v="premium"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -489,7 +500,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/samples/src/test/resources/samples/PivotReport.xlsx
+++ b/samples/src/test/resources/samples/PivotReport.xlsx
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Total</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Sum of Premium</t>
+  </si>
+  <si>
+    <t>#eval 0</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,6 +513,11 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>11</v>

--- a/samples/src/test/resources/samples/PivotReport.xlsx
+++ b/samples/src/test/resources/samples/PivotReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Total</t>
   </si>
@@ -55,15 +55,12 @@
   <si>
     <t>Sum of Premium</t>
   </si>
-  <si>
-    <t>#eval 0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,10 +105,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -146,6 +143,11 @@
       <sharedItems/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -290,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,6 +327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,26 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -526,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -534,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,19 +547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -588,13 +587,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="2">
-        <f>SUBTOTAL(109,[Premium])</f>
+        <f>SUBTOTAL(109,Table1[Premium])</f>
         <v>0</v>
       </c>
     </row>
